--- a/rating_clean.xlsx
+++ b/rating_clean.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaimin Khaw\Desktop\credit-rating-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0AC688-BFFB-4D76-9F79-5CCA82A8A746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87CC6E-CA25-4385-B219-39FC464B1187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1257,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1441,7 +1441,7 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -1702,7 +1702,7 @@
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,7 +2008,7 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2022,7 +2022,7 @@
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -2090,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2430,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E87" t="s">
         <v>25</v>
@@ -2719,10 +2719,10 @@
         <v>50</v>
       </c>
       <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" t="s">
         <v>63</v>
-      </c>
-      <c r="E104" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2875,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2954,13 +2954,13 @@
         <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" t="s">
         <v>63</v>
-      </c>
-      <c r="E118" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E119" t="s">
         <v>46</v>
@@ -3130,7 +3130,7 @@
         <v>8</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">

--- a/rating_clean.xlsx
+++ b/rating_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaimin Khaw\Desktop\credit-rating-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87CC6E-CA25-4385-B219-39FC464B1187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4512DD9-3144-447E-B123-A6F9F745B664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="191">
   <si>
     <t>cc</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t>Zambia</t>
+  </si>
+  <si>
+    <t>B- *-</t>
+  </si>
+  <si>
+    <t>Algeria</t>
   </si>
 </sst>
 </file>
@@ -605,6 +611,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -949,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1261,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
@@ -1444,7 +1451,7 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1597,7 +1604,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
@@ -1699,7 +1706,7 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
         <v>67</v>
@@ -1781,7 +1788,7 @@
         <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
@@ -1838,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2161,7 +2168,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -2379,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>29</v>
@@ -2393,7 +2400,7 @@
         <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
         <v>29</v>
@@ -2835,7 +2842,7 @@
         <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
         <v>11</v>
@@ -2926,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3318,6 +3325,23 @@
       </c>
       <c r="E139" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>612</v>
+      </c>
+      <c r="B140" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
